--- a/Data/上货数据模板.xlsx
+++ b/Data/上货数据模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配件归属车系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>零售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>税费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>质保期/月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应省份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,152 +83,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>供应商提供的原厂OE码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质保时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可供应省份简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉科科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华晨宝马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝马5系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前保险杠皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京津冀蒙浙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>常州顺扬</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>如有必填</t>
+  </si>
+  <si>
+    <t>补充说明</t>
+  </si>
+  <si>
+    <t>哑光，黑色</t>
+  </si>
+  <si>
+    <t>项目：</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>示例1：</t>
+  </si>
+  <si>
+    <t>示例2：</t>
+  </si>
+  <si>
+    <t>前大灯（右）</t>
+  </si>
+  <si>
+    <t>桑塔纳</t>
+  </si>
+  <si>
+    <t>DZA2AB05B4</t>
+  </si>
+  <si>
+    <t>车享配</t>
+  </si>
+  <si>
+    <t>上汽大众</t>
+  </si>
+  <si>
+    <t>品牌件</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>浙</t>
+  </si>
+  <si>
+    <t>是否必填：</t>
+  </si>
+  <si>
+    <t>配件归属何种品质</t>
+  </si>
+  <si>
+    <t>税费金额或税点</t>
+  </si>
+  <si>
+    <t>不填</t>
+  </si>
+  <si>
+    <t>若由供应商自行承担运费，则必须填写</t>
+  </si>
+  <si>
+    <t>原厂编码OE</t>
+  </si>
+  <si>
+    <t>适用车辆年款</t>
+  </si>
+  <si>
+    <t>2008-2011</t>
+  </si>
+  <si>
+    <t>桑塔纳2008款</t>
+  </si>
+  <si>
+    <t>制造商名称或产地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三厢2.0T 手自一体 领先型 </t>
+  </si>
+  <si>
+    <t>车型名称</t>
+  </si>
+  <si>
+    <t>小糸</t>
+  </si>
+  <si>
+    <t>选填</t>
+  </si>
+  <si>
+    <t>平台收取服务费</t>
+  </si>
+  <si>
+    <t>表格填写时间</t>
+  </si>
+  <si>
+    <t>生产厂商名称</t>
+  </si>
+  <si>
     <t>车系名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商提供的原厂OE码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质保时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可供应省份简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉科科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华晨宝马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝马5系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前保险杠皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京津冀蒙浙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制造厂商名称</t>
-  </si>
-  <si>
-    <t>必填</t>
-  </si>
-  <si>
-    <t>常州顺扬</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>如有必填</t>
-  </si>
-  <si>
-    <t>补充说明</t>
-  </si>
-  <si>
-    <t>哑光，黑色</t>
-  </si>
-  <si>
-    <t>项目：</t>
-  </si>
-  <si>
-    <t>说明：</t>
-  </si>
-  <si>
-    <t>示例1：</t>
-  </si>
-  <si>
-    <t>示例2：</t>
-  </si>
-  <si>
-    <t>前大灯（右）</t>
-  </si>
-  <si>
-    <t>桑塔纳</t>
-  </si>
-  <si>
-    <t>DZA2AB05B4</t>
-  </si>
-  <si>
-    <t>车享配</t>
-  </si>
-  <si>
-    <t>上汽大众</t>
-  </si>
-  <si>
-    <t>品牌件</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>浙</t>
-  </si>
-  <si>
-    <t>是否必填：</t>
-  </si>
-  <si>
-    <t>配件归属何种品质</t>
-  </si>
-  <si>
-    <t>税费金额或税点</t>
-  </si>
-  <si>
-    <t>不填</t>
-  </si>
-  <si>
-    <t>若由供应商自行承担运费，则必须填写</t>
-  </si>
-  <si>
-    <t>原厂编码OE</t>
-  </si>
-  <si>
-    <t>配件归属车型</t>
-  </si>
-  <si>
-    <t>年款</t>
-  </si>
-  <si>
-    <t>适用车辆年款</t>
-  </si>
-  <si>
-    <t>2008-2011</t>
-  </si>
-  <si>
-    <t>桑塔纳2008款</t>
-  </si>
-  <si>
-    <t>制造商名称或产地</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三厢2.0T 手自一体 领先型 </t>
-  </si>
-  <si>
-    <t>车型名称</t>
-  </si>
-  <si>
-    <t>小糸</t>
-  </si>
-  <si>
-    <t>选填</t>
-  </si>
-  <si>
-    <t>平台收取服务费</t>
+  </si>
+  <si>
+    <t>配件归属何种车系</t>
+  </si>
+  <si>
+    <t>配件归属何种车型</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>供应商报价</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
       <t>配件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>裸价</t>
     </r>
     <r>
       <rPr>
@@ -249,18 +261,18 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>裸价（不含税）</t>
+      <t>（不含税）</t>
     </r>
   </si>
   <si>
-    <t>表格填写时间</t>
+    <t>质保时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +322,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -688,7 +713,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -697,207 +722,207 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>2012</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4">
         <v>51117261804</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2">
         <v>5000</v>
@@ -915,45 +940,45 @@
         <v>12</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5">
         <v>42915</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="K5" s="2">
         <v>500</v>
@@ -971,13 +996,13 @@
         <v>6</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="5">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="5">
         <v>42928</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
